--- a/database/industries/urea/kermasha/product/quarterly_seprated.xlsx
+++ b/database/industries/urea/kermasha/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\kermasha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C8235-25B1-4464-B271-F6B71D184FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8422117-7AE5-4609-9BB3-B2E9D1E9E751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -651,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I115"/>
+  <dimension ref="B1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -669,8 +684,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,8 +701,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,8 +718,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -703,8 +733,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,8 +750,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -727,8 +767,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,8 +782,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,8 +809,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -769,10 +834,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -781,176 +851,286 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>72160</v>
+      </c>
+      <c r="F11" s="11">
+        <v>82499</v>
+      </c>
+      <c r="G11" s="11">
+        <v>96624</v>
+      </c>
+      <c r="H11" s="11">
+        <v>86937</v>
+      </c>
+      <c r="I11" s="11">
+        <v>71067</v>
+      </c>
+      <c r="J11" s="11">
         <v>81734</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1273</v>
+      </c>
+      <c r="F12" s="13">
+        <v>291</v>
+      </c>
+      <c r="G12" s="13">
+        <v>40</v>
+      </c>
+      <c r="H12" s="13">
+        <v>932</v>
+      </c>
+      <c r="I12" s="13">
+        <v>516</v>
+      </c>
+      <c r="J12" s="13">
         <v>604</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>59483</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>63641</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>49209</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>463</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>1825</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>1749</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>73433</v>
+      </c>
+      <c r="F17" s="15">
+        <v>82790</v>
+      </c>
+      <c r="G17" s="15">
+        <v>96664</v>
+      </c>
+      <c r="H17" s="15">
+        <v>87869</v>
+      </c>
+      <c r="I17" s="15">
+        <v>71583</v>
+      </c>
+      <c r="J17" s="15">
         <v>82338</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>59946</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>65466</v>
       </c>
-      <c r="I17" s="15">
+      <c r="N17" s="15">
         <v>50958</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -959,128 +1139,208 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>102031</v>
+      </c>
+      <c r="F19" s="11">
+        <v>73367</v>
+      </c>
+      <c r="G19" s="11">
+        <v>59706</v>
+      </c>
+      <c r="H19" s="11">
+        <v>90441</v>
+      </c>
+      <c r="I19" s="11">
+        <v>92949</v>
+      </c>
+      <c r="J19" s="11">
         <v>29036</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>415</v>
+      </c>
+      <c r="F20" s="13">
+        <v>142</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="13">
+        <v>571</v>
+      </c>
+      <c r="J20" s="13">
         <v>821</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>74959</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>83473</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>96777</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13">
+        <v>18</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13">
         <v>1466</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>1581</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>2392</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>102446</v>
+      </c>
+      <c r="F23" s="15">
+        <v>73509</v>
+      </c>
+      <c r="G23" s="15">
+        <v>59707</v>
+      </c>
+      <c r="H23" s="15">
+        <v>91441</v>
+      </c>
+      <c r="I23" s="15">
+        <v>93520</v>
+      </c>
+      <c r="J23" s="15">
         <v>29857</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>76425</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>85054</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>99169</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1089,10 +1349,15 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1111,76 +1376,136 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>13</v>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
         <v>0</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>13</v>
+      <c r="F27" s="15">
+        <v>0</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <v>0</v>
+      <c r="H27" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
+        <v>175879</v>
+      </c>
+      <c r="F28" s="19">
+        <v>156299</v>
+      </c>
+      <c r="G28" s="19">
+        <v>156371</v>
+      </c>
+      <c r="H28" s="19">
+        <v>179310</v>
+      </c>
+      <c r="I28" s="19">
+        <v>165103</v>
+      </c>
+      <c r="J28" s="19">
         <v>112195</v>
       </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
         <v>136371</v>
       </c>
-      <c r="H28" s="19">
+      <c r="M28" s="19">
         <v>150520</v>
       </c>
-      <c r="I28" s="19">
+      <c r="N28" s="19">
         <v>150127</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1189,8 +1514,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1199,8 +1529,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1209,10 +1544,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1231,8 +1571,23 @@
       <c r="I32" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1241,10 +1596,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1253,176 +1613,286 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>1841333</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3166378</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4117869</v>
+      </c>
+      <c r="H35" s="11">
+        <v>4203934</v>
+      </c>
+      <c r="I35" s="11">
+        <v>3710392</v>
+      </c>
+      <c r="J35" s="11">
         <v>8297716</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>20373</v>
+      </c>
+      <c r="F36" s="13">
+        <v>7075</v>
+      </c>
+      <c r="G36" s="13">
+        <v>760</v>
+      </c>
+      <c r="H36" s="13">
+        <v>42585</v>
+      </c>
+      <c r="I36" s="13">
+        <v>35017</v>
+      </c>
+      <c r="J36" s="13">
         <v>55824</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
+        <v>18</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
         <v>7277555</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>6693494</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>5575318</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="13">
+        <v>18</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="13">
         <v>88596</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>364044</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>360115</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>1861706</v>
+      </c>
+      <c r="F41" s="15">
+        <v>3173453</v>
+      </c>
+      <c r="G41" s="15">
+        <v>4118629</v>
+      </c>
+      <c r="H41" s="15">
+        <v>4246519</v>
+      </c>
+      <c r="I41" s="15">
+        <v>3745409</v>
+      </c>
+      <c r="J41" s="15">
         <v>8353540</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
         <v>7366151</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>7057538</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>5935433</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1431,128 +1901,208 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>4004261</v>
+      </c>
+      <c r="F43" s="11">
+        <v>3708714</v>
+      </c>
+      <c r="G43" s="11">
+        <v>3078810</v>
+      </c>
+      <c r="H43" s="11">
+        <v>4994920</v>
+      </c>
+      <c r="I43" s="11">
+        <v>6608099</v>
+      </c>
+      <c r="J43" s="11">
         <v>2682595</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
+        <v>10365</v>
+      </c>
+      <c r="F44" s="13">
+        <v>4266</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>45807</v>
+      </c>
+      <c r="I44" s="13">
+        <v>34788</v>
+      </c>
+      <c r="J44" s="13">
         <v>57790</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="11">
+        <v>18</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="11">
         <v>10274244</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>11354582</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>13739320</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="13">
+        <v>18</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="13">
         <v>252266</v>
       </c>
-      <c r="H46" s="13">
+      <c r="M46" s="13">
         <v>300077</v>
       </c>
-      <c r="I46" s="13">
+      <c r="N46" s="13">
         <v>492882</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>4014626</v>
+      </c>
+      <c r="F47" s="15">
+        <v>3712980</v>
+      </c>
+      <c r="G47" s="15">
+        <v>3078810</v>
+      </c>
+      <c r="H47" s="15">
+        <v>5040727</v>
+      </c>
+      <c r="I47" s="15">
+        <v>6642887</v>
+      </c>
+      <c r="J47" s="15">
         <v>2740385</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
         <v>10526510</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>11654659</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>14232202</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -1561,10 +2111,15 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -1583,78 +2138,138 @@
       <c r="I49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>13</v>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
         <v>0</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>13</v>
+      <c r="F51" s="15">
+        <v>0</v>
       </c>
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
+      <c r="H51" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
+        <v>5876332</v>
+      </c>
+      <c r="F52" s="19">
+        <v>6886433</v>
+      </c>
+      <c r="G52" s="19">
+        <v>7197439</v>
+      </c>
+      <c r="H52" s="19">
+        <v>9287246</v>
+      </c>
+      <c r="I52" s="19">
+        <v>10388296</v>
+      </c>
+      <c r="J52" s="19">
         <v>11093925</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-      <c r="G52" s="19">
+      <c r="K52" s="19">
+        <v>0</v>
+      </c>
+      <c r="L52" s="19">
         <v>17892661</v>
       </c>
-      <c r="H52" s="19">
+      <c r="M52" s="19">
         <v>18712197</v>
       </c>
-      <c r="I52" s="19">
+      <c r="N52" s="19">
         <v>20167635</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1663,8 +2278,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1673,8 +2293,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1683,10 +2308,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1705,8 +2335,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1715,10 +2360,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1727,154 +2377,249 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>25517364</v>
+      </c>
+      <c r="F59" s="11">
+        <v>38381735</v>
+      </c>
+      <c r="G59" s="11">
+        <v>42617455</v>
+      </c>
+      <c r="H59" s="11">
+        <v>48356097</v>
+      </c>
+      <c r="I59" s="11">
+        <v>52209774</v>
+      </c>
+      <c r="J59" s="11">
         <v>101520983</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>107469960</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>16003928</v>
+      </c>
+      <c r="F60" s="13">
+        <v>24229452</v>
+      </c>
+      <c r="G60" s="13">
+        <v>19000000</v>
+      </c>
+      <c r="H60" s="13">
+        <v>45692060</v>
+      </c>
+      <c r="I60" s="13">
+        <v>67862403</v>
+      </c>
+      <c r="J60" s="13">
         <v>92423841</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>108545455</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11">
         <v>122346805</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>105175814</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>113298746</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="13">
+        <v>18</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="13">
         <v>191352052</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>199476164</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>205897656</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -1883,104 +2628,169 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>39245533</v>
+      </c>
+      <c r="F66" s="11">
+        <v>50549477</v>
+      </c>
+      <c r="G66" s="11">
+        <v>51566174</v>
+      </c>
+      <c r="H66" s="11">
+        <v>55228492</v>
+      </c>
+      <c r="I66" s="11">
+        <v>71093815</v>
+      </c>
+      <c r="J66" s="11">
         <v>92388587</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>150588973</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>24975904</v>
+      </c>
+      <c r="F67" s="13">
+        <v>30042254</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="13">
+        <v>45807000</v>
+      </c>
+      <c r="I67" s="13">
+        <v>60924694</v>
+      </c>
+      <c r="J67" s="13">
         <v>70389769</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>142758333</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11">
+        <v>18</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11">
         <v>137064849</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>136027003</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>141968856</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="13">
+        <v>18</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="13">
         <v>172077763</v>
       </c>
-      <c r="H69" s="13">
+      <c r="M69" s="13">
         <v>189802024</v>
       </c>
-      <c r="I69" s="13">
+      <c r="N69" s="13">
         <v>206054348</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1989,8 +2799,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1999,8 +2814,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2009,10 +2829,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2031,8 +2856,23 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2041,10 +2881,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2053,176 +2898,286 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>-550575</v>
+      </c>
+      <c r="F76" s="11">
+        <v>-1112920</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-1681856</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-1244107</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-1515224</v>
+      </c>
+      <c r="J76" s="11">
         <v>-3460407</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-3432192</v>
       </c>
-      <c r="G76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>-13013</v>
+      </c>
+      <c r="F77" s="13">
+        <v>-16803</v>
+      </c>
+      <c r="G77" s="13">
+        <v>-13448</v>
+      </c>
+      <c r="H77" s="13">
+        <v>-19155</v>
+      </c>
+      <c r="I77" s="13">
+        <v>-18457</v>
+      </c>
+      <c r="J77" s="13">
         <v>-45406</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>-19344</v>
       </c>
-      <c r="G77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11">
+        <v>0</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="13">
+        <v>18</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="13">
         <v>6219738</v>
       </c>
-      <c r="G79" s="13">
-        <v>0</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0</v>
+      </c>
+      <c r="N79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11">
+        <v>18</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="11">
         <v>-2085997</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>-2529657</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>-1736962</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="13">
+        <v>18</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="13">
         <v>-23547</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-100248</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>-89636</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>-563588</v>
+      </c>
+      <c r="F82" s="15">
+        <v>-1129723</v>
+      </c>
+      <c r="G82" s="15">
+        <v>-1695304</v>
+      </c>
+      <c r="H82" s="15">
+        <v>-1263262</v>
+      </c>
+      <c r="I82" s="15">
+        <v>-1533681</v>
+      </c>
+      <c r="J82" s="15">
         <v>-3505813</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K82" s="15">
         <v>2768202</v>
       </c>
-      <c r="G82" s="15">
+      <c r="L82" s="15">
         <v>-2109544</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M82" s="15">
         <v>-2629905</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N82" s="15">
         <v>-1826598</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2231,128 +3186,208 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>-763716</v>
+      </c>
+      <c r="F84" s="11">
+        <v>-1098151</v>
+      </c>
+      <c r="G84" s="11">
+        <v>-1300210</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-1294255</v>
+      </c>
+      <c r="I84" s="11">
+        <v>-1908404</v>
+      </c>
+      <c r="J84" s="11">
         <v>-2308492</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>-6067180</v>
       </c>
-      <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>-3849</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-3673</v>
+      </c>
+      <c r="G85" s="13">
+        <v>-2140</v>
+      </c>
+      <c r="H85" s="13">
+        <v>-20558</v>
+      </c>
+      <c r="I85" s="13">
+        <v>-20228</v>
+      </c>
+      <c r="J85" s="13">
         <v>-55967</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>-25925</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="11">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="11">
         <v>-2628722</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-3296834</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-3482073</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="13">
+        <v>18</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="13">
         <v>-74500</v>
       </c>
-      <c r="H87" s="13">
+      <c r="M87" s="13">
         <v>-90362</v>
       </c>
-      <c r="I87" s="13">
+      <c r="N87" s="13">
         <v>-122690</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
+        <v>-767565</v>
+      </c>
+      <c r="F88" s="15">
+        <v>-1101824</v>
+      </c>
+      <c r="G88" s="15">
+        <v>-1302350</v>
+      </c>
+      <c r="H88" s="15">
+        <v>-1314813</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-1928632</v>
+      </c>
+      <c r="J88" s="15">
         <v>-2364459</v>
       </c>
-      <c r="F88" s="15">
+      <c r="K88" s="15">
         <v>-6093105</v>
       </c>
-      <c r="G88" s="15">
+      <c r="L88" s="15">
         <v>-2703222</v>
       </c>
-      <c r="H88" s="15">
+      <c r="M88" s="15">
         <v>-3387196</v>
       </c>
-      <c r="I88" s="15">
+      <c r="N88" s="15">
         <v>-3604763</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -2361,10 +3396,15 @@
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -2383,37 +3423,67 @@
       <c r="I90" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="15">
+        <v>0</v>
+      </c>
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <v>0</v>
+      </c>
+      <c r="M90" s="15">
+        <v>0</v>
+      </c>
+      <c r="N90" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D91" s="19"/>
-      <c r="E91" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>13</v>
+      <c r="E91" s="19">
+        <v>0</v>
+      </c>
+      <c r="F91" s="19">
+        <v>0</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
@@ -2425,36 +3495,66 @@
       <c r="G92" s="15">
         <v>0</v>
       </c>
-      <c r="H92" s="15">
-        <v>0</v>
+      <c r="H92" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I92" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="15">
+        <v>0</v>
+      </c>
+      <c r="K92" s="15">
+        <v>0</v>
+      </c>
+      <c r="L92" s="15">
+        <v>0</v>
+      </c>
+      <c r="M92" s="15">
+        <v>0</v>
+      </c>
+      <c r="N92" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19">
+        <v>-1331153</v>
+      </c>
+      <c r="F93" s="19">
+        <v>-2231547</v>
+      </c>
+      <c r="G93" s="19">
+        <v>-2997654</v>
+      </c>
+      <c r="H93" s="19">
+        <v>-2578075</v>
+      </c>
+      <c r="I93" s="19">
+        <v>-3462313</v>
+      </c>
+      <c r="J93" s="19">
         <v>-5870272</v>
       </c>
-      <c r="F93" s="19">
+      <c r="K93" s="19">
         <v>-3324903</v>
       </c>
-      <c r="G93" s="19">
+      <c r="L93" s="19">
         <v>-4812766</v>
       </c>
-      <c r="H93" s="19">
+      <c r="M93" s="19">
         <v>-6017101</v>
       </c>
-      <c r="I93" s="19">
+      <c r="N93" s="19">
         <v>-5431361</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2463,8 +3563,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2473,8 +3578,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2483,10 +3593,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2505,8 +3620,23 @@
       <c r="I97" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2515,10 +3645,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2527,176 +3662,286 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>1290758</v>
+      </c>
+      <c r="F100" s="11">
+        <v>2053458</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2436013</v>
+      </c>
+      <c r="H100" s="11">
+        <v>2959827</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2195168</v>
+      </c>
+      <c r="J100" s="11">
         <v>4837309</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>3656849</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>7360</v>
+      </c>
+      <c r="F101" s="13">
+        <v>-9728</v>
+      </c>
+      <c r="G101" s="13">
+        <v>-12688</v>
+      </c>
+      <c r="H101" s="13">
+        <v>23430</v>
+      </c>
+      <c r="I101" s="13">
+        <v>16560</v>
+      </c>
+      <c r="J101" s="13">
         <v>10418</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>-14568</v>
       </c>
-      <c r="G101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
       </c>
-      <c r="H102" s="11">
-        <v>0</v>
-      </c>
-      <c r="I102" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="13">
+        <v>18</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="13">
         <v>-9992304</v>
       </c>
-      <c r="G103" s="13">
-        <v>0</v>
-      </c>
-      <c r="H103" s="13">
-        <v>0</v>
-      </c>
-      <c r="I103" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L103" s="13">
+        <v>0</v>
+      </c>
+      <c r="M103" s="13">
+        <v>0</v>
+      </c>
+      <c r="N103" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="11">
+        <v>18</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="11">
         <v>5191558</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>4163837</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>3838356</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="13">
+        <v>18</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="13">
         <v>65049</v>
       </c>
-      <c r="H105" s="13">
+      <c r="M105" s="13">
         <v>263796</v>
       </c>
-      <c r="I105" s="13">
+      <c r="N105" s="13">
         <v>270479</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
+        <v>1298118</v>
+      </c>
+      <c r="F106" s="15">
+        <v>2043730</v>
+      </c>
+      <c r="G106" s="15">
+        <v>2423325</v>
+      </c>
+      <c r="H106" s="15">
+        <v>2983257</v>
+      </c>
+      <c r="I106" s="15">
+        <v>2211728</v>
+      </c>
+      <c r="J106" s="15">
         <v>4847727</v>
       </c>
-      <c r="F106" s="15">
+      <c r="K106" s="15">
         <v>-6350023</v>
       </c>
-      <c r="G106" s="15">
+      <c r="L106" s="15">
         <v>5256607</v>
       </c>
-      <c r="H106" s="15">
+      <c r="M106" s="15">
         <v>4427633</v>
       </c>
-      <c r="I106" s="15">
+      <c r="N106" s="15">
         <v>4108835</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -2705,128 +3950,208 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>3240545</v>
+      </c>
+      <c r="F108" s="11">
+        <v>2610563</v>
+      </c>
+      <c r="G108" s="11">
+        <v>1778600</v>
+      </c>
+      <c r="H108" s="11">
+        <v>3700665</v>
+      </c>
+      <c r="I108" s="11">
+        <v>4699695</v>
+      </c>
+      <c r="J108" s="11">
         <v>374103</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>17167042</v>
       </c>
-      <c r="G108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13">
+        <v>6516</v>
+      </c>
+      <c r="F109" s="13">
+        <v>593</v>
+      </c>
+      <c r="G109" s="13">
+        <v>-2140</v>
+      </c>
+      <c r="H109" s="13">
+        <v>25249</v>
+      </c>
+      <c r="I109" s="13">
+        <v>14560</v>
+      </c>
+      <c r="J109" s="13">
         <v>1823</v>
       </c>
-      <c r="F109" s="13">
+      <c r="K109" s="13">
         <v>-8794</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="11">
+        <v>18</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110" s="11">
         <v>7645522</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>8057748</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>10257247</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="13">
+        <v>18</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111" s="13">
         <v>177766</v>
       </c>
-      <c r="H111" s="13">
+      <c r="M111" s="13">
         <v>209715</v>
       </c>
-      <c r="I111" s="13">
+      <c r="N111" s="13">
         <v>370192</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15">
+        <v>3247061</v>
+      </c>
+      <c r="F112" s="15">
+        <v>2611156</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1776460</v>
+      </c>
+      <c r="H112" s="15">
+        <v>3725914</v>
+      </c>
+      <c r="I112" s="15">
+        <v>4714255</v>
+      </c>
+      <c r="J112" s="15">
         <v>375926</v>
       </c>
-      <c r="F112" s="15">
+      <c r="K112" s="15">
         <v>17158248</v>
       </c>
-      <c r="G112" s="15">
+      <c r="L112" s="15">
         <v>7823288</v>
       </c>
-      <c r="H112" s="15">
+      <c r="M112" s="15">
         <v>8267463</v>
       </c>
-      <c r="I112" s="15">
+      <c r="N112" s="15">
         <v>10627439</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -2835,10 +4160,15 @@
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -2857,26 +4187,56 @@
       <c r="I114" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="15">
+        <v>0</v>
+      </c>
+      <c r="K114" s="15">
+        <v>0</v>
+      </c>
+      <c r="L114" s="15">
+        <v>0</v>
+      </c>
+      <c r="M114" s="15">
+        <v>0</v>
+      </c>
+      <c r="N114" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19">
+        <v>4545179</v>
+      </c>
+      <c r="F115" s="19">
+        <v>4654886</v>
+      </c>
+      <c r="G115" s="19">
+        <v>4199785</v>
+      </c>
+      <c r="H115" s="19">
+        <v>6709171</v>
+      </c>
+      <c r="I115" s="19">
+        <v>6925983</v>
+      </c>
+      <c r="J115" s="19">
         <v>5223653</v>
       </c>
-      <c r="F115" s="19">
+      <c r="K115" s="19">
         <v>10808225</v>
       </c>
-      <c r="G115" s="19">
+      <c r="L115" s="19">
         <v>13079895</v>
       </c>
-      <c r="H115" s="19">
+      <c r="M115" s="19">
         <v>12695096</v>
       </c>
-      <c r="I115" s="19">
+      <c r="N115" s="19">
         <v>14736274</v>
       </c>
     </row>
